--- a/generic_heat_repartition/data/kraft_process_parameters.xlsx
+++ b/generic_heat_repartition/data/kraft_process_parameters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoine\Desktop\final_results_prototype\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoine\Documents\GitHub\Industrial-decarb\generic_heat_repartition\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A230A88-8702-4F2A-B2E5-377FC5165149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C535CE-CFEF-4FD3-A83E-12EABBF52B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="53">
   <si>
     <t>Digester</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>process_unit</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -701,10 +704,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD6FC51-A24F-409E-B8FE-CF15B4AE1D99}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -987,6 +990,17 @@
         <v>38</v>
       </c>
       <c r="D24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" t="s">
         <v>10</v>
       </c>
     </row>
